--- a/data/格式校验/3在职-异常-字段的基本格式.xlsx
+++ b/data/格式校验/3在职-异常-字段的基本格式.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="170">
   <si>
     <t>1.0</t>
   </si>
@@ -193,113 +193,208 @@
     <t>身份证</t>
   </si>
   <si>
-    <t>431225199203059177</t>
+    <t>370101192012027097</t>
   </si>
   <si>
     <t>本科</t>
   </si>
   <si>
-    <t>1990/03/07</t>
-  </si>
-  <si>
-    <t>广西</t>
-  </si>
-  <si>
-    <t>华夏人寿保险股份有限公司山东分公司</t>
+    <t>山东</t>
+  </si>
+  <si>
+    <t>人保汽车保险销售服务有限公司济南市营业部</t>
   </si>
   <si>
     <t>个险营销</t>
   </si>
   <si>
+    <t>劳务派遣</t>
+  </si>
+  <si>
+    <t xml:space="preserve">姓名值不能为空；
+</t>
+  </si>
+  <si>
+    <t>00008644000000000000329278</t>
+  </si>
+  <si>
+    <t>00008644000000000000328278</t>
+  </si>
+  <si>
+    <t>山东省济南市</t>
+  </si>
+  <si>
+    <t>黄武</t>
+  </si>
+  <si>
+    <t>370102197010171192</t>
+  </si>
+  <si>
+    <t>万巧巧</t>
+  </si>
+  <si>
+    <t>110101199803071119</t>
+  </si>
+  <si>
+    <t>电销</t>
+  </si>
+  <si>
+    <t>劳务派</t>
+  </si>
+  <si>
+    <t xml:space="preserve">合同类型值不在允许的范围内；
+</t>
+  </si>
+  <si>
+    <t>00008644000000000000329279</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 370102199503075518</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
     <t>代理合同</t>
   </si>
   <si>
-    <t>姓名为空</t>
-  </si>
-  <si>
-    <t>00008644000000002020013535</t>
-  </si>
-  <si>
-    <t>440085140</t>
+    <t xml:space="preserve">证件种类值不能为空；证件种类值不在允许的范围内；
+</t>
+  </si>
+  <si>
+    <t>00008644000000000000515309</t>
+  </si>
+  <si>
+    <t>00008644000000000000514308</t>
+  </si>
+  <si>
+    <t>山东省烟台市</t>
+  </si>
+  <si>
+    <t>女</t>
+  </si>
+  <si>
+    <t xml:space="preserve">370102199503071656
+</t>
+  </si>
+  <si>
+    <t>劳动合同</t>
+  </si>
+  <si>
+    <t xml:space="preserve">学历填写错误；
+</t>
+  </si>
+  <si>
+    <t>00008644000000000000515419</t>
+  </si>
+  <si>
+    <t>370101192012028970</t>
+  </si>
+  <si>
+    <t>硕士</t>
+  </si>
+  <si>
+    <t xml:space="preserve">所属机构全称值不能为空；
+</t>
+  </si>
+  <si>
+    <t>00008644000000000000197069</t>
+  </si>
+  <si>
+    <t>00008644000000000000196018</t>
   </si>
   <si>
     <t>山东省</t>
   </si>
   <si>
-    <t>2021/03/07</t>
-  </si>
-  <si>
-    <t>邓辉</t>
-  </si>
-  <si>
-    <t>431225199203059193</t>
-  </si>
-  <si>
-    <t>431225199203059214</t>
-  </si>
-  <si>
-    <t>431225199203059230</t>
-  </si>
-  <si>
-    <t>431225199203059257</t>
-  </si>
-  <si>
-    <t>431225199203059273</t>
-  </si>
-  <si>
-    <t>43122519920305929X</t>
-  </si>
-  <si>
-    <t>431225199203059310</t>
-  </si>
-  <si>
-    <t>431225199203059337</t>
-  </si>
-  <si>
-    <t>431225199203059353</t>
-  </si>
-  <si>
-    <t>43122519920305937X</t>
-  </si>
-  <si>
-    <t>431225199203059396</t>
-  </si>
-  <si>
-    <t>431225199203059417</t>
-  </si>
-  <si>
-    <t>431225199203059433</t>
-  </si>
-  <si>
-    <t>43122519920305945X</t>
-  </si>
-  <si>
-    <t>431225199203059476</t>
-  </si>
-  <si>
-    <t>End Mark(结束标记，勿删除)</t>
+    <t>370101192012026772</t>
+  </si>
+  <si>
+    <t>非全日制用工</t>
+  </si>
+  <si>
+    <t xml:space="preserve">销售渠道类型值不能为空；销售渠道类型值不在允许的范围内；
+</t>
+  </si>
+  <si>
+    <t>00008644000000000000471559</t>
+  </si>
+  <si>
+    <t>00008644000000000000470559</t>
+  </si>
+  <si>
+    <t>山东省东营市</t>
+  </si>
+  <si>
+    <t xml:space="preserve">410102199703076534
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">合同类型值不能为空；合同类型值不在允许的范围内；
+</t>
+  </si>
+  <si>
+    <t>00008644000000000000515308</t>
+  </si>
+  <si>
+    <t>37010119201202795</t>
+  </si>
+  <si>
+    <t>江西</t>
+  </si>
+  <si>
+    <t xml:space="preserve">执业证编号值不能为空；
+</t>
+  </si>
+  <si>
+    <t>00008644000000000000615586</t>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">说明：
-</t>
+      <t>350102199003076713</t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
+        <sz val="12"/>
         <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1、为保证数据导入的准确，表格仅支持文本格式内容；
-2、填写数据时，请将序号为1的示例数据删除；</t>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">执业证编号格式错误；
+</t>
+  </si>
+  <si>
+    <t>00008644000000000000515308111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">410102199703077115
+</t>
+  </si>
+  <si>
+    <t>00008644</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>350102199003079877</t>
     </r>
     <r>
       <rPr>
@@ -309,22 +404,146 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-3、学历为中专时，请选择“高中及同等学历”；
-4、户口所在省份不属于中国时（即外国），请填写“外籍或其他”；
 </t>
     </r>
+  </si>
+  <si>
+    <t>湖南</t>
+  </si>
+  <si>
+    <t>银保</t>
+  </si>
+  <si>
+    <t xml:space="preserve">公司工号填写错误；
+</t>
+  </si>
+  <si>
+    <t>00008644000000000000708706</t>
+  </si>
+  <si>
+    <t>山东省枣庄市</t>
+  </si>
+  <si>
+    <t xml:space="preserve">410102199703077713
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">执业区域填写错误；
+</t>
+  </si>
+  <si>
+    <t>00008644000000000000708817</t>
+  </si>
+  <si>
+    <t>3701011920120275</t>
+  </si>
+  <si>
+    <t>广西</t>
+  </si>
+  <si>
+    <t xml:space="preserve">登记日期格式错误；登记日期不能小于用户成年期；
+</t>
+  </si>
+  <si>
+    <t>00008644000000000000978993</t>
+  </si>
+  <si>
+    <t>00008644000000000000977993</t>
+  </si>
+  <si>
+    <t>370102199703078473</t>
+  </si>
+  <si>
+    <t>个险营</t>
+  </si>
+  <si>
+    <t xml:space="preserve">销售渠道类型值不在允许的范围内；
+</t>
+  </si>
+  <si>
+    <t>00008644000000000000197786</t>
+  </si>
+  <si>
+    <t>370102199003076397</t>
+  </si>
+  <si>
+    <t>中国人民财产保险股份有限公司枣庄市市中支公司</t>
+  </si>
+  <si>
+    <t xml:space="preserve">所属机构全称填写错误；所在机构缺少对应执业证编码；
+</t>
+  </si>
+  <si>
+    <t>00008644000000000000197739</t>
+  </si>
+  <si>
+    <t>00008644000000000000104010</t>
+  </si>
+  <si>
+    <t>3701011920120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">证件类型填写错误；
+</t>
+  </si>
+  <si>
+    <t>00008644000000000000105010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">110101199803074918
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">本执业证编号为其他从业人员持有；
+</t>
+  </si>
+  <si>
+    <t>00008644000000000000197018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 370102201103078592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">登记日期不能小于用户成年期；
+</t>
+  </si>
+  <si>
+    <t>00008644000000000000197122</t>
+  </si>
+  <si>
+    <t>431225198903101431</t>
+  </si>
+  <si>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>5、不允许有空行（即没有数据的一整行），有多条要导入的数据，就插入多少行；
-6、结束标记 End Mark不允许删除；
-7、首行的模板版本号不允许删除；</t>
+      <t>370101192012026430</t>
     </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">（已离职）本执业证编号为其他从业人员持有；
+</t>
+  </si>
+  <si>
+    <t>00008644000000000000197029</t>
+  </si>
+  <si>
+    <t>End Mark(结束标记，勿删除)</t>
   </si>
   <si>
     <t>销售从业人员基本信息导入模板（在职人员）
@@ -444,9 +663,6 @@
       <t xml:space="preserve">
   2.导入类型在表格中点选，点选的类型应与保险中介监管信息系统的功能模块保持一致。</t>
     </r>
-  </si>
-  <si>
-    <t>其他</t>
   </si>
   <si>
     <t>1.共性填写要求</t>
@@ -544,13 +760,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;￥&quot;\ * #,##0.00_-;\-&quot;￥&quot;\ * #,##0.00_-;_-&quot;￥&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;￥&quot;\ * #,##0_-;\-&quot;￥&quot;\ * #,##0_-;_-&quot;￥&quot;\ * &quot;-&quot;_-;_-@_-"/>
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_-&quot;￥&quot;\ * #,##0_-;\-&quot;￥&quot;\ * #,##0_-;_-&quot;￥&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="0;[Red]0"/>
     <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;￥&quot;\ * #,##0.00_-;\-&quot;￥&quot;\ * #,##0.00_-;_-&quot;￥&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="36">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -634,15 +851,59 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color rgb="FF409EFF"/>
+      <name val="微软雅黑"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="12"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -656,14 +917,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="12"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -672,36 +925,7 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -716,7 +940,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -745,9 +969,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -762,33 +1009,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color indexed="10"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="37">
@@ -830,7 +1054,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -842,67 +1150,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -914,67 +1180,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -992,24 +1204,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1081,26 +1305,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left style="medium">
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1147,8 +1362,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399975585192419"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1160,6 +1375,39 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1178,72 +1426,63 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="22" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="28" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1339,35 +1578,57 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1499,13 +1760,13 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
     <mruColors>
-      <color rgb="00FF0000"/>
       <color rgb="00DD0806"/>
       <color rgb="0000B050"/>
+      <color rgb="00FFFF00"/>
       <color rgb="0000B0F0"/>
+      <color rgb="008EA9DB"/>
       <color rgb="00000000"/>
-      <color rgb="008EA9DB"/>
-      <color rgb="00FFFF00"/>
+      <color rgb="00FF0000"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1774,10 +2035,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AL25"/>
+  <dimension ref="A1:AL29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4285714285714" defaultRowHeight="12"/>
@@ -1791,13 +2052,13 @@
     <col min="7" max="7" width="13.7142857142857" style="27" customWidth="1"/>
     <col min="8" max="8" width="7.88571428571429" style="27" customWidth="1"/>
     <col min="9" max="9" width="13.5714285714286" style="27" customWidth="1"/>
-    <col min="10" max="10" width="19.847619047619" style="27" customWidth="1"/>
-    <col min="11" max="11" width="13.5714285714286" style="27" customWidth="1"/>
-    <col min="12" max="12" width="11.2857142857143" style="27" customWidth="1"/>
-    <col min="13" max="13" width="16.1238095238095" style="27" customWidth="1"/>
-    <col min="14" max="14" width="20.1333333333333" style="27" customWidth="1"/>
+    <col min="10" max="10" width="44.8571428571429" style="27" customWidth="1"/>
+    <col min="11" max="11" width="14.4285714285714" style="27" customWidth="1"/>
+    <col min="12" max="12" width="15.2857142857143" style="27" customWidth="1"/>
+    <col min="13" max="13" width="20.5047619047619" style="27" customWidth="1"/>
+    <col min="14" max="14" width="38.2857142857143" style="27" customWidth="1"/>
     <col min="15" max="15" width="13.4285714285714" style="27" customWidth="1"/>
-    <col min="16" max="16" width="11.4285714285714" style="27" customWidth="1"/>
+    <col min="16" max="16" width="21.4285714285714" style="27" customWidth="1"/>
     <col min="17" max="17" width="16.7142857142857" style="27" customWidth="1"/>
     <col min="18" max="18" width="10.6666666666667" style="27" customWidth="1"/>
     <col min="19" max="19" width="12.7142857142857" style="27" customWidth="1"/>
@@ -1913,41 +2174,41 @@
       <c r="G3" s="30"/>
       <c r="H3" s="30"/>
       <c r="I3" s="30"/>
-      <c r="J3" s="40" t="s">
+      <c r="J3" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="41" t="s">
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="43" t="s">
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="S3" s="43"/>
-      <c r="T3" s="43"/>
-      <c r="U3" s="43"/>
-      <c r="V3" s="43"/>
-      <c r="W3" s="43"/>
-      <c r="X3" s="43"/>
-      <c r="Y3" s="43"/>
-      <c r="Z3" s="43"/>
-      <c r="AA3" s="43"/>
-      <c r="AB3" s="43"/>
-      <c r="AC3" s="43"/>
-      <c r="AD3" s="43"/>
-      <c r="AE3" s="43"/>
-      <c r="AF3" s="43"/>
-      <c r="AG3" s="43"/>
-      <c r="AH3" s="43"/>
-      <c r="AI3" s="43"/>
-      <c r="AJ3" s="43"/>
-      <c r="AK3" s="43"/>
-      <c r="AL3" s="43"/>
+      <c r="S3" s="51"/>
+      <c r="T3" s="51"/>
+      <c r="U3" s="51"/>
+      <c r="V3" s="51"/>
+      <c r="W3" s="51"/>
+      <c r="X3" s="51"/>
+      <c r="Y3" s="51"/>
+      <c r="Z3" s="51"/>
+      <c r="AA3" s="51"/>
+      <c r="AB3" s="51"/>
+      <c r="AC3" s="51"/>
+      <c r="AD3" s="51"/>
+      <c r="AE3" s="51"/>
+      <c r="AF3" s="51"/>
+      <c r="AG3" s="51"/>
+      <c r="AH3" s="51"/>
+      <c r="AI3" s="51"/>
+      <c r="AJ3" s="51"/>
+      <c r="AK3" s="51"/>
+      <c r="AL3" s="51"/>
     </row>
     <row r="4" s="24" customFormat="1" ht="20.1" customHeight="1" spans="1:38">
       <c r="A4" s="30"/>
@@ -1959,49 +2220,49 @@
       <c r="G4" s="30"/>
       <c r="H4" s="30"/>
       <c r="I4" s="30"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="44" t="s">
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="S4" s="44"/>
-      <c r="T4" s="44"/>
-      <c r="U4" s="44" t="s">
+      <c r="S4" s="52"/>
+      <c r="T4" s="52"/>
+      <c r="U4" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="V4" s="44"/>
-      <c r="W4" s="44"/>
-      <c r="X4" s="44" t="s">
+      <c r="V4" s="52"/>
+      <c r="W4" s="52"/>
+      <c r="X4" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="Y4" s="44"/>
-      <c r="Z4" s="44"/>
-      <c r="AA4" s="44" t="s">
+      <c r="Y4" s="52"/>
+      <c r="Z4" s="52"/>
+      <c r="AA4" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="AB4" s="44"/>
-      <c r="AC4" s="44"/>
-      <c r="AD4" s="44" t="s">
+      <c r="AB4" s="52"/>
+      <c r="AC4" s="52"/>
+      <c r="AD4" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="AE4" s="44"/>
-      <c r="AF4" s="44"/>
-      <c r="AG4" s="44" t="s">
+      <c r="AE4" s="52"/>
+      <c r="AF4" s="52"/>
+      <c r="AG4" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="AH4" s="44"/>
-      <c r="AI4" s="44"/>
-      <c r="AJ4" s="44" t="s">
+      <c r="AH4" s="52"/>
+      <c r="AI4" s="52"/>
+      <c r="AJ4" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="AK4" s="44"/>
-      <c r="AL4" s="44"/>
+      <c r="AK4" s="52"/>
+      <c r="AL4" s="52"/>
     </row>
     <row r="5" s="25" customFormat="1" ht="20" customHeight="1" spans="1:38">
       <c r="A5" s="23" t="s">
@@ -2034,13 +2295,13 @@
       <c r="J5" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="42" t="s">
+      <c r="K5" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="L5" s="42" t="s">
+      <c r="L5" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="M5" s="42" t="s">
+      <c r="M5" s="46" t="s">
         <v>25</v>
       </c>
       <c r="N5" s="32" t="s">
@@ -2119,1304 +2380,1675 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" s="25" customFormat="1" ht="45" customHeight="1" spans="1:38">
+    <row r="6" s="25" customFormat="1" ht="20" customHeight="1" spans="1:38">
       <c r="A6" s="33">
         <v>1</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="34" t="s">
+      <c r="B6" s="34"/>
+      <c r="C6" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="36" t="s">
+      <c r="E6" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="F6" s="37" t="s">
+      <c r="F6" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="G6" s="36" t="s">
+      <c r="G6" s="39">
+        <v>33553</v>
+      </c>
+      <c r="H6" s="33">
+        <v>31</v>
+      </c>
+      <c r="I6" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="H6" s="36">
-        <v>30</v>
-      </c>
-      <c r="I6" s="36" t="s">
+      <c r="J6" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="J6" s="36" t="s">
+      <c r="K6" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="K6" s="35" t="s">
+      <c r="L6" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="L6" s="35" t="s">
+      <c r="M6" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="M6" s="33" t="s">
+      <c r="N6" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="N6" s="36" t="s">
+      <c r="O6" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="O6" s="36" t="s">
+      <c r="P6" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="P6" s="36" t="s">
+      <c r="Q6" s="39">
+        <v>42129</v>
+      </c>
+      <c r="R6" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="Q6" s="36" t="s">
+      <c r="S6" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="T6" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="R6" s="45"/>
-      <c r="S6" s="45"/>
-      <c r="T6" s="45"/>
-      <c r="U6" s="45"/>
-      <c r="V6" s="45"/>
-      <c r="W6" s="45"/>
-      <c r="X6" s="45"/>
-      <c r="Y6" s="45"/>
-      <c r="Z6" s="45"/>
-      <c r="AA6" s="45"/>
-      <c r="AB6" s="45"/>
-      <c r="AC6" s="45"/>
-      <c r="AD6" s="45"/>
-      <c r="AE6" s="45"/>
-      <c r="AF6" s="45"/>
-      <c r="AG6" s="45"/>
-      <c r="AH6" s="45"/>
-      <c r="AI6" s="45"/>
-      <c r="AJ6" s="45"/>
-      <c r="AK6" s="45"/>
-      <c r="AL6" s="45"/>
-    </row>
-    <row r="7" s="25" customFormat="1" ht="45" customHeight="1" spans="1:38">
+      <c r="U6" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="V6" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="W6" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="X6" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y6" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z6" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA6" s="53"/>
+      <c r="AB6" s="31"/>
+      <c r="AC6" s="31"/>
+      <c r="AD6" s="31"/>
+      <c r="AE6" s="31"/>
+      <c r="AF6" s="31"/>
+      <c r="AG6" s="31"/>
+      <c r="AH6" s="31"/>
+      <c r="AI6" s="31"/>
+      <c r="AJ6" s="31"/>
+      <c r="AK6" s="31"/>
+      <c r="AL6" s="31"/>
+    </row>
+    <row r="7" s="25" customFormat="1" ht="20" customHeight="1" spans="1:38">
       <c r="A7" s="33">
         <v>2</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="35"/>
-      <c r="E7" s="36" t="s">
+      <c r="D7" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="F7" s="37" t="s">
+      <c r="F7" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="G7" s="36" t="s">
+      <c r="G7" s="39">
+        <v>33553</v>
+      </c>
+      <c r="H7" s="33">
+        <v>31</v>
+      </c>
+      <c r="I7" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="H7" s="36">
-        <v>30</v>
-      </c>
-      <c r="I7" s="36" t="s">
+      <c r="J7" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="J7" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="K7" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="L7" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="M7" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="N7" s="36" t="s">
+      <c r="K7" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="L7" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="M7" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="N7" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="O7" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="O7" s="36" t="s">
+      <c r="P7" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="P7" s="36" t="s">
+      <c r="Q7" s="39">
+        <v>42129</v>
+      </c>
+      <c r="R7" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="Q7" s="36" t="s">
+      <c r="S7" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="T7" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="R7" s="45"/>
-      <c r="S7" s="45"/>
-      <c r="T7" s="45"/>
-      <c r="U7" s="45"/>
-      <c r="V7" s="45"/>
-      <c r="W7" s="45"/>
-      <c r="X7" s="45"/>
-      <c r="Y7" s="45"/>
-      <c r="Z7" s="45"/>
-      <c r="AA7" s="45"/>
-      <c r="AB7" s="45"/>
-      <c r="AC7" s="45"/>
-      <c r="AD7" s="45"/>
-      <c r="AE7" s="45"/>
-      <c r="AF7" s="45"/>
-      <c r="AG7" s="45"/>
-      <c r="AH7" s="45"/>
-      <c r="AI7" s="45"/>
-      <c r="AJ7" s="45"/>
-      <c r="AK7" s="45"/>
-      <c r="AL7" s="45"/>
-    </row>
-    <row r="8" s="25" customFormat="1" ht="45" customHeight="1" spans="1:38">
+      <c r="U7" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="V7" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="W7" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="X7" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y7" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z7" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA7" s="53"/>
+      <c r="AB7" s="31"/>
+      <c r="AC7" s="31"/>
+      <c r="AD7" s="31"/>
+      <c r="AE7" s="31"/>
+      <c r="AF7" s="31"/>
+      <c r="AG7" s="31"/>
+      <c r="AH7" s="31"/>
+      <c r="AI7" s="31"/>
+      <c r="AJ7" s="31"/>
+      <c r="AK7" s="31"/>
+      <c r="AL7" s="31"/>
+    </row>
+    <row r="8" s="25" customFormat="1" ht="20" customHeight="1" spans="1:38">
       <c r="A8" s="33">
         <v>3</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="F8" s="37" t="s">
+      <c r="D8" s="36"/>
+      <c r="E8" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="G8" s="36" t="s">
+      <c r="G8" s="39">
+        <v>33555</v>
+      </c>
+      <c r="H8" s="33">
+        <v>33</v>
+      </c>
+      <c r="I8" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="H8" s="36">
-        <v>30</v>
-      </c>
-      <c r="I8" s="36" t="s">
+      <c r="J8" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="J8" s="36"/>
-      <c r="K8" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="L8" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="M8" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="N8" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="O8" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="P8" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q8" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="R8" s="45"/>
-      <c r="S8" s="45"/>
-      <c r="T8" s="45"/>
-      <c r="U8" s="45"/>
-      <c r="V8" s="45"/>
-      <c r="W8" s="45"/>
-      <c r="X8" s="45"/>
-      <c r="Y8" s="45"/>
-      <c r="Z8" s="45"/>
-      <c r="AA8" s="45"/>
-      <c r="AB8" s="45"/>
-      <c r="AC8" s="45"/>
-      <c r="AD8" s="45"/>
-      <c r="AE8" s="45"/>
-      <c r="AF8" s="45"/>
-      <c r="AG8" s="45"/>
-      <c r="AH8" s="45"/>
-      <c r="AI8" s="45"/>
-      <c r="AJ8" s="45"/>
-      <c r="AK8" s="45"/>
-      <c r="AL8" s="45"/>
-    </row>
-    <row r="9" s="25" customFormat="1" ht="45" customHeight="1" spans="1:38">
+      <c r="K8" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="L8" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="M8" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="N8" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="O8" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="P8" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q8" s="39">
+        <v>42129</v>
+      </c>
+      <c r="S8" s="48"/>
+      <c r="T8" s="48"/>
+      <c r="U8" s="48"/>
+      <c r="V8" s="48"/>
+      <c r="W8" s="48"/>
+      <c r="X8" s="48"/>
+      <c r="Y8" s="48"/>
+      <c r="Z8" s="48"/>
+      <c r="AA8" s="53"/>
+      <c r="AB8" s="31"/>
+      <c r="AC8" s="31"/>
+      <c r="AD8" s="31"/>
+      <c r="AE8" s="31"/>
+      <c r="AF8" s="31"/>
+      <c r="AG8" s="31"/>
+      <c r="AH8" s="31"/>
+      <c r="AI8" s="31"/>
+      <c r="AJ8" s="31"/>
+      <c r="AK8" s="31"/>
+      <c r="AL8" s="31"/>
+    </row>
+    <row r="9" s="25" customFormat="1" ht="20" customHeight="1" spans="1:38">
       <c r="A9" s="33">
         <v>4</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="F9" s="37"/>
-      <c r="G9" s="36" t="s">
+      <c r="C9" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" s="38"/>
+      <c r="G9" s="39">
+        <v>33555</v>
+      </c>
+      <c r="H9" s="33">
+        <v>33</v>
+      </c>
+      <c r="I9" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="H9" s="36">
-        <v>30</v>
-      </c>
-      <c r="I9" s="36" t="s">
+      <c r="J9" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="J9" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="K9" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="L9" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="M9" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="N9" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="O9" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="P9" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q9" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="R9" s="45"/>
-      <c r="S9" s="45"/>
-      <c r="T9" s="45"/>
-      <c r="U9" s="45"/>
-      <c r="V9" s="45"/>
-      <c r="W9" s="45"/>
-      <c r="X9" s="45"/>
-      <c r="Y9" s="45"/>
-      <c r="Z9" s="45"/>
-      <c r="AA9" s="45"/>
-      <c r="AB9" s="45"/>
-      <c r="AC9" s="45"/>
-      <c r="AD9" s="45"/>
-      <c r="AE9" s="45"/>
-      <c r="AF9" s="45"/>
-      <c r="AG9" s="45"/>
-      <c r="AH9" s="45"/>
-      <c r="AI9" s="45"/>
-      <c r="AJ9" s="45"/>
-      <c r="AK9" s="45"/>
-      <c r="AL9" s="45"/>
-    </row>
-    <row r="10" s="25" customFormat="1" ht="45" customHeight="1" spans="1:38">
+      <c r="K9" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="L9" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="M9" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="N9" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="O9" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="P9" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q9" s="39">
+        <v>42129</v>
+      </c>
+      <c r="S9" s="48"/>
+      <c r="T9" s="48"/>
+      <c r="U9" s="48"/>
+      <c r="V9" s="48"/>
+      <c r="W9" s="48"/>
+      <c r="X9" s="48"/>
+      <c r="Y9" s="48"/>
+      <c r="Z9" s="48"/>
+      <c r="AA9" s="53"/>
+      <c r="AB9" s="31"/>
+      <c r="AC9" s="31"/>
+      <c r="AD9" s="31"/>
+      <c r="AE9" s="31"/>
+      <c r="AF9" s="31"/>
+      <c r="AG9" s="31"/>
+      <c r="AH9" s="31"/>
+      <c r="AI9" s="31"/>
+      <c r="AJ9" s="31"/>
+      <c r="AK9" s="31"/>
+      <c r="AL9" s="31"/>
+    </row>
+    <row r="10" s="25" customFormat="1" ht="20" customHeight="1" spans="1:38">
       <c r="A10" s="33">
         <v>5</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="D10" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="E10" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="F10" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="G10" s="36" t="s">
+      <c r="E10" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="F10" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="G10" s="39">
+        <v>33551</v>
+      </c>
+      <c r="H10" s="33">
+        <v>29</v>
+      </c>
+      <c r="I10" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="H10" s="36">
-        <v>30</v>
-      </c>
-      <c r="I10" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="J10" s="36" t="s">
+      <c r="J10" s="47"/>
+      <c r="K10" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="K10" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="L10" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="M10" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="N10" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="O10" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="P10" s="36" t="s">
+      <c r="L10" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="M10" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="N10" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="O10" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="P10" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q10" s="39">
+        <v>42129</v>
+      </c>
+      <c r="R10" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="Q10" s="36" t="s">
+      <c r="S10" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="T10" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="R10" s="45"/>
-      <c r="S10" s="45"/>
-      <c r="T10" s="45"/>
-      <c r="U10" s="45"/>
-      <c r="V10" s="45"/>
-      <c r="W10" s="45"/>
-      <c r="X10" s="45"/>
-      <c r="Y10" s="45"/>
-      <c r="Z10" s="45"/>
-      <c r="AA10" s="45"/>
-      <c r="AB10" s="45"/>
-      <c r="AC10" s="45"/>
-      <c r="AD10" s="45"/>
-      <c r="AE10" s="45"/>
-      <c r="AF10" s="45"/>
-      <c r="AG10" s="45"/>
-      <c r="AH10" s="45"/>
-      <c r="AI10" s="45"/>
-      <c r="AJ10" s="45"/>
-      <c r="AK10" s="45"/>
-      <c r="AL10" s="45"/>
-    </row>
-    <row r="11" s="25" customFormat="1" ht="45" customHeight="1" spans="1:38">
+      <c r="U10" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="V10" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="W10" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="X10" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y10" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z10" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA10" s="53"/>
+      <c r="AB10" s="31"/>
+      <c r="AC10" s="31"/>
+      <c r="AD10" s="31"/>
+      <c r="AE10" s="31"/>
+      <c r="AF10" s="31"/>
+      <c r="AG10" s="31"/>
+      <c r="AH10" s="31"/>
+      <c r="AI10" s="31"/>
+      <c r="AJ10" s="31"/>
+      <c r="AK10" s="31"/>
+      <c r="AL10" s="31"/>
+    </row>
+    <row r="11" s="25" customFormat="1" ht="20" customHeight="1" spans="1:38">
       <c r="A11" s="33">
         <v>6</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" s="35" t="s">
+      <c r="C11" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="36" t="s">
-        <v>70</v>
-      </c>
-      <c r="F11" s="37" t="s">
+      <c r="E11" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="F11" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="G11" s="36" t="s">
+      <c r="G11" s="39">
+        <v>33554</v>
+      </c>
+      <c r="H11" s="33">
+        <v>32</v>
+      </c>
+      <c r="I11" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="H11" s="36">
-        <v>30</v>
-      </c>
-      <c r="I11" s="36" t="s">
+      <c r="J11" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="J11" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="K11" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="L11" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="M11" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="N11" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="O11" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="P11" s="36" t="s">
+      <c r="K11" s="36"/>
+      <c r="L11" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="M11" s="48" t="s">
+        <v>91</v>
+      </c>
+      <c r="N11" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="O11" s="49" t="s">
+        <v>93</v>
+      </c>
+      <c r="P11" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q11" s="39">
+        <v>42129</v>
+      </c>
+      <c r="R11" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="Q11" s="36" t="s">
+      <c r="S11" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="T11" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="R11" s="45"/>
-      <c r="S11" s="45"/>
-      <c r="T11" s="45"/>
-      <c r="U11" s="45"/>
-      <c r="V11" s="45"/>
-      <c r="W11" s="45"/>
-      <c r="X11" s="45"/>
-      <c r="Y11" s="45"/>
-      <c r="Z11" s="45"/>
-      <c r="AA11" s="45"/>
-      <c r="AB11" s="45"/>
-      <c r="AC11" s="45"/>
-      <c r="AD11" s="45"/>
-      <c r="AE11" s="45"/>
-      <c r="AF11" s="45"/>
-      <c r="AG11" s="45"/>
-      <c r="AH11" s="45"/>
-      <c r="AI11" s="45"/>
-      <c r="AJ11" s="45"/>
-      <c r="AK11" s="45"/>
-      <c r="AL11" s="45"/>
-    </row>
-    <row r="12" s="25" customFormat="1" ht="45" customHeight="1" spans="1:38">
+      <c r="U11" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="V11" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="W11" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="X11" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y11" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z11" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA11" s="53"/>
+      <c r="AB11" s="31"/>
+      <c r="AC11" s="31"/>
+      <c r="AD11" s="31"/>
+      <c r="AE11" s="31"/>
+      <c r="AF11" s="31"/>
+      <c r="AG11" s="31"/>
+      <c r="AH11" s="31"/>
+      <c r="AI11" s="31"/>
+      <c r="AJ11" s="31"/>
+      <c r="AK11" s="31"/>
+      <c r="AL11" s="31"/>
+    </row>
+    <row r="12" s="25" customFormat="1" ht="20" customHeight="1" spans="1:38">
       <c r="A12" s="33">
         <v>7</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="35" t="s">
+      <c r="C12" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="F12" s="37" t="s">
+      <c r="E12" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="F12" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="G12" s="36" t="s">
+      <c r="G12" s="39">
+        <v>33555</v>
+      </c>
+      <c r="H12" s="33">
+        <v>33</v>
+      </c>
+      <c r="I12" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="H12" s="36">
-        <v>30</v>
-      </c>
-      <c r="I12" s="36" t="s">
+      <c r="J12" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="J12" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="K12" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="L12" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="M12" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="N12" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="O12" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="P12" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q12" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="R12" s="45"/>
-      <c r="S12" s="45"/>
-      <c r="T12" s="45"/>
-      <c r="U12" s="45"/>
-      <c r="V12" s="45"/>
-      <c r="W12" s="45"/>
-      <c r="X12" s="45"/>
-      <c r="Y12" s="45"/>
-      <c r="Z12" s="45"/>
-      <c r="AA12" s="45"/>
-      <c r="AB12" s="45"/>
-      <c r="AC12" s="45"/>
-      <c r="AD12" s="45"/>
-      <c r="AE12" s="45"/>
-      <c r="AF12" s="45"/>
-      <c r="AG12" s="45"/>
-      <c r="AH12" s="45"/>
-      <c r="AI12" s="45"/>
-      <c r="AJ12" s="45"/>
-      <c r="AK12" s="45"/>
-      <c r="AL12" s="45"/>
-    </row>
-    <row r="13" s="25" customFormat="1" ht="45" customHeight="1" spans="1:38">
+      <c r="K12" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="L12" s="36"/>
+      <c r="M12" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="N12" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="O12" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="P12" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q12" s="39">
+        <v>42129</v>
+      </c>
+      <c r="S12" s="48"/>
+      <c r="T12" s="48"/>
+      <c r="U12" s="48"/>
+      <c r="V12" s="48"/>
+      <c r="W12" s="48"/>
+      <c r="X12" s="48"/>
+      <c r="Y12" s="48"/>
+      <c r="Z12" s="48"/>
+      <c r="AA12" s="53"/>
+      <c r="AB12" s="31"/>
+      <c r="AC12" s="31"/>
+      <c r="AD12" s="31"/>
+      <c r="AE12" s="31"/>
+      <c r="AF12" s="31"/>
+      <c r="AG12" s="31"/>
+      <c r="AH12" s="31"/>
+      <c r="AI12" s="31"/>
+      <c r="AJ12" s="31"/>
+      <c r="AK12" s="31"/>
+      <c r="AL12" s="31"/>
+    </row>
+    <row r="13" s="25" customFormat="1" ht="20" customHeight="1" spans="1:38">
       <c r="A13" s="33">
         <v>8</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" s="36" t="s">
+      <c r="D13" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="F13" s="37" t="s">
+      <c r="E13" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="F13" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="G13" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="H13" s="36">
-        <v>30</v>
-      </c>
-      <c r="I13" s="36" t="s">
+      <c r="G13" s="39">
+        <v>33551</v>
+      </c>
+      <c r="H13" s="33">
+        <v>29</v>
+      </c>
+      <c r="I13" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="J13" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="J13" s="36" t="s">
+      <c r="K13" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="K13" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="L13" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="M13" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="N13" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="O13" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="P13" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q13" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="R13" s="45"/>
-      <c r="S13" s="45"/>
-      <c r="T13" s="45"/>
-      <c r="U13" s="45"/>
-      <c r="V13" s="45"/>
-      <c r="W13" s="45"/>
-      <c r="X13" s="45"/>
-      <c r="Y13" s="45"/>
-      <c r="Z13" s="45"/>
-      <c r="AA13" s="45"/>
-      <c r="AB13" s="45"/>
-      <c r="AC13" s="45"/>
-      <c r="AD13" s="45"/>
-      <c r="AE13" s="45"/>
-      <c r="AF13" s="45"/>
-      <c r="AG13" s="45"/>
-      <c r="AH13" s="45"/>
-      <c r="AI13" s="45"/>
-      <c r="AJ13" s="45"/>
-      <c r="AK13" s="45"/>
-      <c r="AL13" s="45"/>
-    </row>
-    <row r="14" s="25" customFormat="1" ht="45" customHeight="1" spans="1:38">
+      <c r="L13" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="M13" s="48" t="s">
+        <v>100</v>
+      </c>
+      <c r="N13" s="50"/>
+      <c r="O13" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="P13" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q13" s="39">
+        <v>42129</v>
+      </c>
+      <c r="R13" s="48"/>
+      <c r="S13" s="48"/>
+      <c r="T13" s="48"/>
+      <c r="U13" s="48"/>
+      <c r="V13" s="48"/>
+      <c r="W13" s="48"/>
+      <c r="X13" s="48"/>
+      <c r="Y13" s="48"/>
+      <c r="Z13" s="48"/>
+      <c r="AA13" s="53"/>
+      <c r="AB13" s="31"/>
+      <c r="AC13" s="31"/>
+      <c r="AD13" s="31"/>
+      <c r="AE13" s="31"/>
+      <c r="AF13" s="31"/>
+      <c r="AG13" s="31"/>
+      <c r="AH13" s="31"/>
+      <c r="AI13" s="31"/>
+      <c r="AJ13" s="31"/>
+      <c r="AK13" s="31"/>
+      <c r="AL13" s="31"/>
+    </row>
+    <row r="14" s="25" customFormat="1" ht="20" customHeight="1" spans="1:38">
       <c r="A14" s="33">
         <v>9</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="F14" s="37" t="s">
+      <c r="D14" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="F14" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="G14" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="H14" s="36">
-        <v>30</v>
-      </c>
-      <c r="I14" s="36" t="s">
+      <c r="G14" s="39">
+        <v>33551</v>
+      </c>
+      <c r="H14" s="33">
+        <v>29</v>
+      </c>
+      <c r="I14" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="J14" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="J14" s="36" t="s">
+      <c r="K14" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="K14" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="L14" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="M14" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="N14" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="O14" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="P14" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q14" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="R14" s="45"/>
-      <c r="S14" s="45"/>
-      <c r="T14" s="45"/>
-      <c r="U14" s="45"/>
-      <c r="V14" s="45"/>
-      <c r="W14" s="45"/>
-      <c r="X14" s="45"/>
-      <c r="Y14" s="45"/>
-      <c r="Z14" s="45"/>
-      <c r="AA14" s="45"/>
-      <c r="AB14" s="45"/>
-      <c r="AC14" s="45"/>
-      <c r="AD14" s="45"/>
-      <c r="AE14" s="45"/>
-      <c r="AF14" s="45"/>
-      <c r="AG14" s="45"/>
-      <c r="AH14" s="45"/>
-      <c r="AI14" s="45"/>
-      <c r="AJ14" s="45"/>
-      <c r="AK14" s="45"/>
-      <c r="AL14" s="45"/>
-    </row>
-    <row r="15" s="25" customFormat="1" ht="45" customHeight="1" spans="1:38">
+      <c r="L14" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="M14" s="48" t="s">
+        <v>103</v>
+      </c>
+      <c r="N14" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="O14" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="P14" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q14" s="39">
+        <v>42129</v>
+      </c>
+      <c r="R14" s="48"/>
+      <c r="S14" s="48"/>
+      <c r="T14" s="48"/>
+      <c r="U14" s="48"/>
+      <c r="V14" s="48"/>
+      <c r="W14" s="48"/>
+      <c r="X14" s="48"/>
+      <c r="Y14" s="48"/>
+      <c r="Z14" s="48"/>
+      <c r="AA14" s="53"/>
+      <c r="AB14" s="31"/>
+      <c r="AC14" s="31"/>
+      <c r="AD14" s="31"/>
+      <c r="AE14" s="31"/>
+      <c r="AF14" s="31"/>
+      <c r="AG14" s="31"/>
+      <c r="AH14" s="31"/>
+      <c r="AI14" s="31"/>
+      <c r="AJ14" s="31"/>
+      <c r="AK14" s="31"/>
+      <c r="AL14" s="31"/>
+    </row>
+    <row r="15" s="25" customFormat="1" ht="20" customHeight="1" spans="1:38">
       <c r="A15" s="33">
         <v>10</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="F15" s="37" t="s">
+      <c r="D15" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="F15" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="G15" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="H15" s="36">
-        <v>30</v>
-      </c>
-      <c r="I15" s="36" t="s">
+      <c r="G15" s="39">
+        <v>33551</v>
+      </c>
+      <c r="H15" s="33">
+        <v>29</v>
+      </c>
+      <c r="I15" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="J15" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="J15" s="36" t="s">
+      <c r="K15" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="K15" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="L15" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="M15" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="N15" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="O15" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="P15" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q15" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="R15" s="45"/>
-      <c r="S15" s="45"/>
-      <c r="T15" s="45"/>
-      <c r="U15" s="45"/>
-      <c r="V15" s="45"/>
-      <c r="W15" s="45"/>
-      <c r="X15" s="45"/>
-      <c r="Y15" s="45"/>
-      <c r="Z15" s="45"/>
-      <c r="AA15" s="45"/>
-      <c r="AB15" s="45"/>
-      <c r="AC15" s="45"/>
-      <c r="AD15" s="45"/>
-      <c r="AE15" s="45"/>
-      <c r="AF15" s="45"/>
-      <c r="AG15" s="45"/>
-      <c r="AH15" s="45"/>
-      <c r="AI15" s="45"/>
-      <c r="AJ15" s="45"/>
-      <c r="AK15" s="45"/>
-      <c r="AL15" s="45"/>
-    </row>
-    <row r="16" s="25" customFormat="1" ht="45" customHeight="1" spans="1:38">
+      <c r="L15" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="M15" s="48" t="s">
+        <v>103</v>
+      </c>
+      <c r="N15" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="O15" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="P15" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q15" s="39">
+        <v>42129</v>
+      </c>
+      <c r="R15" s="48"/>
+      <c r="S15" s="48"/>
+      <c r="T15" s="48"/>
+      <c r="U15" s="48"/>
+      <c r="V15" s="48"/>
+      <c r="W15" s="48"/>
+      <c r="X15" s="48"/>
+      <c r="Y15" s="48"/>
+      <c r="Z15" s="48"/>
+      <c r="AA15" s="53"/>
+      <c r="AB15" s="31"/>
+      <c r="AC15" s="31"/>
+      <c r="AD15" s="31"/>
+      <c r="AE15" s="31"/>
+      <c r="AF15" s="31"/>
+      <c r="AG15" s="31"/>
+      <c r="AH15" s="31"/>
+      <c r="AI15" s="31"/>
+      <c r="AJ15" s="31"/>
+      <c r="AK15" s="31"/>
+      <c r="AL15" s="31"/>
+    </row>
+    <row r="16" s="25" customFormat="1" ht="20" customHeight="1" spans="1:38">
       <c r="A16" s="33">
         <v>11</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="34" t="s">
+      <c r="C16" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="E16" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="F16" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="G16" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="H16" s="36">
-        <v>30</v>
-      </c>
-      <c r="I16" s="36" t="s">
+      <c r="D16" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="G16" s="39">
+        <v>33551</v>
+      </c>
+      <c r="H16" s="33">
+        <v>29</v>
+      </c>
+      <c r="I16" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="J16" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="J16" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="K16" s="35" t="s">
+      <c r="K16" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="L16" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="L16" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="M16" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="N16" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="O16" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="P16" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q16" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="R16" s="45"/>
-      <c r="S16" s="45"/>
-      <c r="T16" s="45"/>
-      <c r="U16" s="45"/>
-      <c r="V16" s="45"/>
-      <c r="W16" s="45"/>
-      <c r="X16" s="45"/>
-      <c r="Y16" s="45"/>
-      <c r="Z16" s="45"/>
-      <c r="AA16" s="45"/>
-      <c r="AB16" s="45"/>
-      <c r="AC16" s="45"/>
-      <c r="AD16" s="45"/>
-      <c r="AE16" s="45"/>
-      <c r="AF16" s="45"/>
-      <c r="AG16" s="45"/>
-      <c r="AH16" s="45"/>
-      <c r="AI16" s="45"/>
-      <c r="AJ16" s="45"/>
-      <c r="AK16" s="45"/>
-      <c r="AL16" s="45"/>
-    </row>
-    <row r="17" s="25" customFormat="1" ht="45" customHeight="1" spans="1:38">
+      <c r="M16" s="48" t="s">
+        <v>110</v>
+      </c>
+      <c r="N16" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="O16" s="49"/>
+      <c r="P16" s="48" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q16" s="39">
+        <v>42129</v>
+      </c>
+      <c r="R16" s="48"/>
+      <c r="S16" s="48"/>
+      <c r="T16" s="48"/>
+      <c r="U16" s="48"/>
+      <c r="V16" s="48"/>
+      <c r="W16" s="48"/>
+      <c r="X16" s="48"/>
+      <c r="Y16" s="48"/>
+      <c r="Z16" s="48"/>
+      <c r="AA16" s="53"/>
+      <c r="AB16" s="31"/>
+      <c r="AC16" s="31"/>
+      <c r="AD16" s="31"/>
+      <c r="AE16" s="31"/>
+      <c r="AF16" s="31"/>
+      <c r="AG16" s="31"/>
+      <c r="AH16" s="31"/>
+      <c r="AI16" s="31"/>
+      <c r="AJ16" s="31"/>
+      <c r="AK16" s="31"/>
+      <c r="AL16" s="31"/>
+    </row>
+    <row r="17" s="25" customFormat="1" ht="20" customHeight="1" spans="1:38">
       <c r="A17" s="33">
         <v>12</v>
       </c>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" s="36" t="s">
+      <c r="D17" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="G17" s="39">
+        <v>33551</v>
+      </c>
+      <c r="H17" s="33">
+        <v>29</v>
+      </c>
+      <c r="I17" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="J17" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="K17" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="L17" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="M17" s="48" t="s">
+        <v>114</v>
+      </c>
+      <c r="N17" s="50" t="s">
+        <v>115</v>
+      </c>
+      <c r="O17" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="F17" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="G17" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="H17" s="36">
-        <v>30</v>
-      </c>
-      <c r="I17" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="J17" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="K17" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="L17" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="M17" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="N17" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="O17" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="P17" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q17" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="R17" s="45"/>
-      <c r="S17" s="45"/>
-      <c r="T17" s="45"/>
-      <c r="U17" s="45"/>
-      <c r="V17" s="45"/>
-      <c r="W17" s="45"/>
-      <c r="X17" s="45"/>
-      <c r="Y17" s="45"/>
-      <c r="Z17" s="45"/>
-      <c r="AA17" s="45"/>
-      <c r="AB17" s="45"/>
-      <c r="AC17" s="45"/>
-      <c r="AD17" s="45"/>
-      <c r="AE17" s="45"/>
-      <c r="AF17" s="45"/>
-      <c r="AG17" s="45"/>
-      <c r="AH17" s="45"/>
-      <c r="AI17" s="45"/>
-      <c r="AJ17" s="45"/>
-      <c r="AK17" s="45"/>
-      <c r="AL17" s="45"/>
-    </row>
-    <row r="18" s="25" customFormat="1" ht="45" customHeight="1" spans="1:38">
+      <c r="P17" s="48"/>
+      <c r="Q17" s="39">
+        <v>42129</v>
+      </c>
+      <c r="R17" s="48"/>
+      <c r="S17" s="48"/>
+      <c r="T17" s="48"/>
+      <c r="U17" s="48"/>
+      <c r="V17" s="48"/>
+      <c r="W17" s="48"/>
+      <c r="X17" s="48"/>
+      <c r="Y17" s="48"/>
+      <c r="Z17" s="48"/>
+      <c r="AA17" s="53"/>
+      <c r="AB17" s="31"/>
+      <c r="AC17" s="31"/>
+      <c r="AD17" s="31"/>
+      <c r="AE17" s="31"/>
+      <c r="AF17" s="31"/>
+      <c r="AG17" s="31"/>
+      <c r="AH17" s="31"/>
+      <c r="AI17" s="31"/>
+      <c r="AJ17" s="31"/>
+      <c r="AK17" s="31"/>
+      <c r="AL17" s="31"/>
+    </row>
+    <row r="18" s="25" customFormat="1" ht="20" customHeight="1" spans="1:38">
       <c r="A18" s="33">
         <v>13</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="F18" s="37" t="s">
+      <c r="C18" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="F18" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="G18" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="H18" s="36">
-        <v>30</v>
-      </c>
-      <c r="I18" s="36" t="s">
+      <c r="G18" s="39">
+        <v>33551</v>
+      </c>
+      <c r="H18" s="33">
+        <v>29</v>
+      </c>
+      <c r="I18" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="J18" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="J18" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="K18" s="35" t="s">
+      <c r="K18" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="L18" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="L18" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="M18" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="N18" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="O18" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="P18" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q18" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="R18" s="45"/>
-      <c r="S18" s="45"/>
-      <c r="T18" s="45"/>
-      <c r="U18" s="45"/>
-      <c r="V18" s="45"/>
-      <c r="W18" s="45"/>
-      <c r="X18" s="45"/>
-      <c r="Y18" s="45"/>
-      <c r="Z18" s="45"/>
-      <c r="AA18" s="45"/>
-      <c r="AB18" s="45"/>
-      <c r="AC18" s="45"/>
-      <c r="AD18" s="45"/>
-      <c r="AE18" s="45"/>
-      <c r="AF18" s="45"/>
-      <c r="AG18" s="45"/>
-      <c r="AH18" s="45"/>
-      <c r="AI18" s="45"/>
-      <c r="AJ18" s="45"/>
-      <c r="AK18" s="45"/>
-      <c r="AL18" s="45"/>
-    </row>
-    <row r="19" s="25" customFormat="1" ht="45" customHeight="1" spans="1:38">
+      <c r="M18" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="N18" s="49" t="s">
+        <v>119</v>
+      </c>
+      <c r="O18" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="P18" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q18" s="39"/>
+      <c r="R18" s="36"/>
+      <c r="S18" s="48"/>
+      <c r="T18" s="48"/>
+      <c r="U18" s="48"/>
+      <c r="V18" s="48"/>
+      <c r="W18" s="48"/>
+      <c r="X18" s="48"/>
+      <c r="Y18" s="48"/>
+      <c r="Z18" s="48"/>
+      <c r="AA18" s="53"/>
+      <c r="AB18" s="31"/>
+      <c r="AC18" s="31"/>
+      <c r="AD18" s="31"/>
+      <c r="AE18" s="31"/>
+      <c r="AF18" s="31"/>
+      <c r="AG18" s="31"/>
+      <c r="AH18" s="31"/>
+      <c r="AI18" s="31"/>
+      <c r="AJ18" s="31"/>
+      <c r="AK18" s="31"/>
+      <c r="AL18" s="31"/>
+    </row>
+    <row r="19" s="25" customFormat="1" ht="20" customHeight="1" spans="1:38">
       <c r="A19" s="33">
         <v>14</v>
       </c>
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="35" t="s">
+      <c r="D19" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="E19" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="F19" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="G19" s="36" t="s">
+      <c r="E19" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="F19" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="G19" s="39">
+        <v>33551</v>
+      </c>
+      <c r="H19" s="33">
+        <v>29</v>
+      </c>
+      <c r="I19" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="H19" s="36">
-        <v>30</v>
-      </c>
-      <c r="I19" s="36" t="s">
+      <c r="J19" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="J19" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="K19" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="L19" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="M19" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="N19" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="O19" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="P19" s="36" t="s">
+      <c r="K19" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="L19" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="M19" s="48" t="s">
+        <v>123</v>
+      </c>
+      <c r="N19" s="49" t="s">
+        <v>124</v>
+      </c>
+      <c r="O19" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="P19" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q19" s="39">
+        <v>42129</v>
+      </c>
+      <c r="R19" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="Q19" s="36" t="s">
+      <c r="S19" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="T19" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="R19" s="45"/>
-      <c r="S19" s="45"/>
-      <c r="T19" s="45"/>
-      <c r="U19" s="45"/>
-      <c r="V19" s="45"/>
-      <c r="W19" s="45"/>
-      <c r="X19" s="45"/>
-      <c r="Y19" s="45"/>
-      <c r="Z19" s="45"/>
-      <c r="AA19" s="45"/>
-      <c r="AB19" s="45"/>
-      <c r="AC19" s="45"/>
-      <c r="AD19" s="45"/>
-      <c r="AE19" s="45"/>
-      <c r="AF19" s="45"/>
-      <c r="AG19" s="45"/>
-      <c r="AH19" s="45"/>
-      <c r="AI19" s="45"/>
-      <c r="AJ19" s="45"/>
-      <c r="AK19" s="45"/>
-      <c r="AL19" s="45"/>
-    </row>
-    <row r="20" s="25" customFormat="1" ht="45" customHeight="1" spans="1:38">
+      <c r="U19" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="V19" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="W19" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="X19" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y19" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z19" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA19" s="53"/>
+      <c r="AB19" s="31"/>
+      <c r="AC19" s="31"/>
+      <c r="AD19" s="31"/>
+      <c r="AE19" s="31"/>
+      <c r="AF19" s="31"/>
+      <c r="AG19" s="31"/>
+      <c r="AH19" s="31"/>
+      <c r="AI19" s="31"/>
+      <c r="AJ19" s="31"/>
+      <c r="AK19" s="31"/>
+      <c r="AL19" s="31"/>
+    </row>
+    <row r="20" s="25" customFormat="1" ht="20" customHeight="1" spans="1:38">
       <c r="A20" s="33">
         <v>15</v>
       </c>
-      <c r="B20" s="33" t="s">
+      <c r="B20" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="34" t="s">
+      <c r="C20" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="35" t="s">
+      <c r="D20" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="E20" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="F20" s="37" t="s">
+      <c r="E20" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="F20" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="G20" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="H20" s="36">
-        <v>30</v>
-      </c>
-      <c r="I20" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="J20" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="K20" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="L20" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="M20" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="N20" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="O20" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="P20" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q20" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="R20" s="45"/>
-      <c r="S20" s="45"/>
-      <c r="T20" s="45"/>
-      <c r="U20" s="45"/>
-      <c r="V20" s="45"/>
-      <c r="W20" s="45"/>
-      <c r="X20" s="45"/>
-      <c r="Y20" s="45"/>
-      <c r="Z20" s="45"/>
-      <c r="AA20" s="45"/>
-      <c r="AB20" s="45"/>
-      <c r="AC20" s="45"/>
-      <c r="AD20" s="45"/>
-      <c r="AE20" s="45"/>
-      <c r="AF20" s="45"/>
-      <c r="AG20" s="45"/>
-      <c r="AH20" s="45"/>
-      <c r="AI20" s="45"/>
-      <c r="AJ20" s="45"/>
-      <c r="AK20" s="45"/>
-      <c r="AL20" s="45"/>
-    </row>
-    <row r="21" s="25" customFormat="1" ht="45" customHeight="1" spans="1:38">
+      <c r="G20" s="39">
+        <v>33551</v>
+      </c>
+      <c r="H20" s="33">
+        <v>29</v>
+      </c>
+      <c r="I20" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="J20" s="47" t="s">
+        <v>126</v>
+      </c>
+      <c r="K20" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="L20" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="M20" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="N20" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="O20" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="P20" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q20" s="39">
+        <v>42129</v>
+      </c>
+      <c r="R20" s="48"/>
+      <c r="S20" s="48"/>
+      <c r="T20" s="48"/>
+      <c r="U20" s="48"/>
+      <c r="V20" s="48"/>
+      <c r="W20" s="48"/>
+      <c r="X20" s="48"/>
+      <c r="Y20" s="48"/>
+      <c r="Z20" s="48"/>
+      <c r="AA20" s="53"/>
+      <c r="AB20" s="31"/>
+      <c r="AC20" s="31"/>
+      <c r="AD20" s="31"/>
+      <c r="AE20" s="31"/>
+      <c r="AF20" s="31"/>
+      <c r="AG20" s="31"/>
+      <c r="AH20" s="31"/>
+      <c r="AI20" s="31"/>
+      <c r="AJ20" s="31"/>
+      <c r="AK20" s="31"/>
+      <c r="AL20" s="31"/>
+    </row>
+    <row r="21" s="25" customFormat="1" ht="20" customHeight="1" spans="1:38">
       <c r="A21" s="33">
         <v>16</v>
       </c>
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="C21" s="34" t="s">
+      <c r="C21" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="35" t="s">
+      <c r="D21" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="E21" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="F21" s="37" t="s">
+      <c r="E21" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="F21" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="G21" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="H21" s="36">
-        <v>30</v>
-      </c>
-      <c r="I21" s="36" t="s">
+      <c r="G21" s="39">
+        <v>33551</v>
+      </c>
+      <c r="H21" s="33">
+        <v>29</v>
+      </c>
+      <c r="I21" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="J21" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="J21" s="36"/>
-      <c r="K21" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="L21" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="M21" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="N21" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="O21" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="P21" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q21" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="R21" s="45"/>
-      <c r="S21" s="45"/>
-      <c r="T21" s="45"/>
-      <c r="U21" s="45"/>
-      <c r="V21" s="45"/>
-      <c r="W21" s="45"/>
-      <c r="X21" s="45"/>
-      <c r="Y21" s="45"/>
-      <c r="Z21" s="45"/>
-      <c r="AA21" s="45"/>
-      <c r="AB21" s="45"/>
-      <c r="AC21" s="45"/>
-      <c r="AD21" s="45"/>
-      <c r="AE21" s="45"/>
-      <c r="AF21" s="45"/>
-      <c r="AG21" s="45"/>
-      <c r="AH21" s="45"/>
-      <c r="AI21" s="45"/>
-      <c r="AJ21" s="45"/>
-      <c r="AK21" s="45"/>
-      <c r="AL21" s="45"/>
-    </row>
-    <row r="22" s="26" customFormat="1" ht="24" customHeight="1" spans="1:17">
-      <c r="A22" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="B22" s="38"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="38"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="38"/>
-      <c r="N22" s="38"/>
-      <c r="O22" s="38"/>
-      <c r="P22" s="38"/>
-      <c r="Q22" s="38"/>
-    </row>
-    <row r="23" s="26" customFormat="1" ht="33" customHeight="1" spans="1:32">
-      <c r="A23" s="39" t="s">
-        <v>82</v>
-      </c>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="39"/>
-      <c r="L23" s="39"/>
-      <c r="M23" s="39"/>
-      <c r="N23" s="39"/>
-      <c r="O23" s="39"/>
-      <c r="P23" s="39"/>
-      <c r="Q23" s="39"/>
-      <c r="R23" s="39"/>
-      <c r="S23" s="39"/>
-      <c r="T23" s="39"/>
-      <c r="U23" s="39"/>
-      <c r="V23" s="39"/>
-      <c r="W23" s="39"/>
-      <c r="X23" s="39"/>
-      <c r="Y23" s="39"/>
-      <c r="Z23" s="39"/>
-      <c r="AA23" s="39"/>
-      <c r="AB23" s="39"/>
-      <c r="AC23" s="39"/>
-      <c r="AD23" s="39"/>
-      <c r="AE23" s="39"/>
-      <c r="AF23" s="39"/>
-    </row>
-    <row r="24" s="26" customFormat="1" ht="33" customHeight="1" spans="1:32">
-      <c r="A24" s="39"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="39"/>
-      <c r="L24" s="39"/>
-      <c r="M24" s="39"/>
-      <c r="N24" s="39"/>
-      <c r="O24" s="39"/>
-      <c r="P24" s="39"/>
-      <c r="Q24" s="39"/>
-      <c r="R24" s="39"/>
-      <c r="S24" s="39"/>
-      <c r="T24" s="39"/>
-      <c r="U24" s="39"/>
-      <c r="V24" s="39"/>
-      <c r="W24" s="39"/>
-      <c r="X24" s="39"/>
-      <c r="Y24" s="39"/>
-      <c r="Z24" s="39"/>
-      <c r="AA24" s="39"/>
-      <c r="AB24" s="39"/>
-      <c r="AC24" s="39"/>
-      <c r="AD24" s="39"/>
-      <c r="AE24" s="39"/>
-      <c r="AF24" s="39"/>
-    </row>
-    <row r="25" s="26" customFormat="1" ht="51" customHeight="1" spans="1:32">
-      <c r="A25" s="39"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="39"/>
-      <c r="K25" s="39"/>
-      <c r="L25" s="39"/>
-      <c r="M25" s="39"/>
-      <c r="N25" s="39"/>
-      <c r="O25" s="39"/>
-      <c r="P25" s="39"/>
-      <c r="Q25" s="39"/>
-      <c r="R25" s="39"/>
-      <c r="S25" s="39"/>
-      <c r="T25" s="39"/>
-      <c r="U25" s="39"/>
-      <c r="V25" s="39"/>
-      <c r="W25" s="39"/>
-      <c r="X25" s="39"/>
-      <c r="Y25" s="39"/>
-      <c r="Z25" s="39"/>
-      <c r="AA25" s="39"/>
-      <c r="AB25" s="39"/>
-      <c r="AC25" s="39"/>
-      <c r="AD25" s="39"/>
-      <c r="AE25" s="39"/>
-      <c r="AF25" s="39"/>
+      <c r="K21" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="L21" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="M21" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="N21" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="O21" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="P21" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q21" s="39">
+        <v>42129</v>
+      </c>
+      <c r="R21" s="48"/>
+      <c r="S21" s="48"/>
+      <c r="T21" s="48"/>
+      <c r="U21" s="48"/>
+      <c r="V21" s="48"/>
+      <c r="W21" s="48"/>
+      <c r="X21" s="48"/>
+      <c r="Y21" s="48"/>
+      <c r="Z21" s="48"/>
+      <c r="AA21" s="53"/>
+      <c r="AB21" s="31"/>
+      <c r="AC21" s="31"/>
+      <c r="AD21" s="31"/>
+      <c r="AE21" s="31"/>
+      <c r="AF21" s="31"/>
+      <c r="AG21" s="31"/>
+      <c r="AH21" s="31"/>
+      <c r="AI21" s="31"/>
+      <c r="AJ21" s="31"/>
+      <c r="AK21" s="31"/>
+      <c r="AL21" s="31"/>
+    </row>
+    <row r="22" s="25" customFormat="1" ht="20" customHeight="1" spans="1:38">
+      <c r="A22" s="33">
+        <v>17</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="F22" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="G22" s="39">
+        <v>33551</v>
+      </c>
+      <c r="H22" s="33">
+        <v>29</v>
+      </c>
+      <c r="I22" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="J22" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="K22" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="L22" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="M22" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="N22" s="49" t="s">
+        <v>135</v>
+      </c>
+      <c r="O22" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="P22" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q22" s="39">
+        <v>42129</v>
+      </c>
+      <c r="R22" s="48"/>
+      <c r="S22" s="48"/>
+      <c r="T22" s="48"/>
+      <c r="U22" s="48"/>
+      <c r="V22" s="48"/>
+      <c r="W22" s="48"/>
+      <c r="X22" s="48"/>
+      <c r="Y22" s="48"/>
+      <c r="Z22" s="48"/>
+      <c r="AA22" s="53"/>
+      <c r="AB22" s="31"/>
+      <c r="AC22" s="31"/>
+      <c r="AD22" s="31"/>
+      <c r="AE22" s="31"/>
+      <c r="AF22" s="31"/>
+      <c r="AG22" s="31"/>
+      <c r="AH22" s="31"/>
+      <c r="AI22" s="31"/>
+      <c r="AJ22" s="31"/>
+      <c r="AK22" s="31"/>
+      <c r="AL22" s="31"/>
+    </row>
+    <row r="23" s="25" customFormat="1" ht="20" customHeight="1" spans="1:38">
+      <c r="A23" s="33">
+        <v>18</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="F23" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="G23" s="39">
+        <v>33551</v>
+      </c>
+      <c r="H23" s="33">
+        <v>29</v>
+      </c>
+      <c r="I23" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="J23" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="K23" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="L23" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="M23" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="N23" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="O23" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="P23" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q23" s="39">
+        <v>42129</v>
+      </c>
+      <c r="R23" s="48"/>
+      <c r="S23" s="48"/>
+      <c r="T23" s="48"/>
+      <c r="U23" s="48"/>
+      <c r="V23" s="48"/>
+      <c r="W23" s="48"/>
+      <c r="X23" s="48"/>
+      <c r="Y23" s="48"/>
+      <c r="Z23" s="48"/>
+      <c r="AA23" s="53"/>
+      <c r="AB23" s="31"/>
+      <c r="AC23" s="31"/>
+      <c r="AD23" s="31"/>
+      <c r="AE23" s="31"/>
+      <c r="AF23" s="31"/>
+      <c r="AG23" s="31"/>
+      <c r="AH23" s="31"/>
+      <c r="AI23" s="31"/>
+      <c r="AJ23" s="31"/>
+      <c r="AK23" s="31"/>
+      <c r="AL23" s="31"/>
+    </row>
+    <row r="24" s="25" customFormat="1" ht="20" customHeight="1" spans="1:38">
+      <c r="A24" s="33">
+        <v>19</v>
+      </c>
+      <c r="B24" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="F24" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="G24" s="39">
+        <v>33551</v>
+      </c>
+      <c r="H24" s="33">
+        <v>29</v>
+      </c>
+      <c r="I24" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="J24" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="K24" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="L24" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="M24" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="N24" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="O24" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="P24" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q24" s="39">
+        <v>72810</v>
+      </c>
+      <c r="R24" s="48"/>
+      <c r="S24" s="48"/>
+      <c r="T24" s="48"/>
+      <c r="U24" s="48"/>
+      <c r="V24" s="48"/>
+      <c r="W24" s="48"/>
+      <c r="X24" s="48"/>
+      <c r="Y24" s="48"/>
+      <c r="Z24" s="48"/>
+      <c r="AA24" s="53"/>
+      <c r="AB24" s="31"/>
+      <c r="AC24" s="31"/>
+      <c r="AD24" s="31"/>
+      <c r="AE24" s="31"/>
+      <c r="AF24" s="31"/>
+      <c r="AG24" s="31"/>
+      <c r="AH24" s="31"/>
+      <c r="AI24" s="31"/>
+      <c r="AJ24" s="31"/>
+      <c r="AK24" s="31"/>
+      <c r="AL24" s="31"/>
+    </row>
+    <row r="25" s="25" customFormat="1" ht="20" customHeight="1" spans="1:38">
+      <c r="A25" s="33">
+        <v>20</v>
+      </c>
+      <c r="B25" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="F25" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="G25" s="39">
+        <v>33551</v>
+      </c>
+      <c r="H25" s="33">
+        <v>29</v>
+      </c>
+      <c r="I25" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="J25" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="K25" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="L25" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="M25" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="N25" s="49" t="s">
+        <v>142</v>
+      </c>
+      <c r="O25" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="P25" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q25" s="39">
+        <v>42129</v>
+      </c>
+      <c r="R25" s="48"/>
+      <c r="S25" s="48"/>
+      <c r="T25" s="48"/>
+      <c r="U25" s="48"/>
+      <c r="V25" s="48"/>
+      <c r="W25" s="48"/>
+      <c r="X25" s="48"/>
+      <c r="Y25" s="48"/>
+      <c r="Z25" s="48"/>
+      <c r="AA25" s="53"/>
+      <c r="AB25" s="31"/>
+      <c r="AC25" s="31"/>
+      <c r="AD25" s="31"/>
+      <c r="AE25" s="31"/>
+      <c r="AF25" s="31"/>
+      <c r="AG25" s="31"/>
+      <c r="AH25" s="31"/>
+      <c r="AI25" s="31"/>
+      <c r="AJ25" s="31"/>
+      <c r="AK25" s="31"/>
+      <c r="AL25" s="31"/>
+    </row>
+    <row r="26" s="26" customFormat="1" ht="24" customHeight="1" spans="1:17">
+      <c r="A26" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="42"/>
+      <c r="M26" s="42"/>
+      <c r="N26" s="42"/>
+      <c r="O26" s="42"/>
+      <c r="P26" s="42"/>
+      <c r="Q26" s="42"/>
+    </row>
+    <row r="27" s="26" customFormat="1" ht="33" customHeight="1" spans="1:32">
+      <c r="A27" s="43"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="43"/>
+      <c r="N27" s="43"/>
+      <c r="O27" s="43"/>
+      <c r="P27" s="43"/>
+      <c r="Q27" s="43"/>
+      <c r="R27" s="43"/>
+      <c r="S27" s="43"/>
+      <c r="T27" s="43"/>
+      <c r="U27" s="43"/>
+      <c r="V27" s="43"/>
+      <c r="W27" s="43"/>
+      <c r="X27" s="43"/>
+      <c r="Y27" s="43"/>
+      <c r="Z27" s="43"/>
+      <c r="AA27" s="43"/>
+      <c r="AB27" s="43"/>
+      <c r="AC27" s="43"/>
+      <c r="AD27" s="43"/>
+      <c r="AE27" s="43"/>
+      <c r="AF27" s="43"/>
+    </row>
+    <row r="28" s="26" customFormat="1" ht="33" customHeight="1" spans="1:32">
+      <c r="A28" s="43"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="43"/>
+      <c r="M28" s="43"/>
+      <c r="N28" s="43"/>
+      <c r="O28" s="43"/>
+      <c r="P28" s="43"/>
+      <c r="Q28" s="43"/>
+      <c r="R28" s="43"/>
+      <c r="S28" s="43"/>
+      <c r="T28" s="43"/>
+      <c r="U28" s="43"/>
+      <c r="V28" s="43"/>
+      <c r="W28" s="43"/>
+      <c r="X28" s="43"/>
+      <c r="Y28" s="43"/>
+      <c r="Z28" s="43"/>
+      <c r="AA28" s="43"/>
+      <c r="AB28" s="43"/>
+      <c r="AC28" s="43"/>
+      <c r="AD28" s="43"/>
+      <c r="AE28" s="43"/>
+      <c r="AF28" s="43"/>
+    </row>
+    <row r="29" s="26" customFormat="1" ht="49" customHeight="1" spans="1:32">
+      <c r="A29" s="43"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="43"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="43"/>
+      <c r="M29" s="43"/>
+      <c r="N29" s="43"/>
+      <c r="O29" s="43"/>
+      <c r="P29" s="43"/>
+      <c r="Q29" s="43"/>
+      <c r="R29" s="43"/>
+      <c r="S29" s="43"/>
+      <c r="T29" s="43"/>
+      <c r="U29" s="43"/>
+      <c r="V29" s="43"/>
+      <c r="W29" s="43"/>
+      <c r="X29" s="43"/>
+      <c r="Y29" s="43"/>
+      <c r="Z29" s="43"/>
+      <c r="AA29" s="43"/>
+      <c r="AB29" s="43"/>
+      <c r="AC29" s="43"/>
+      <c r="AD29" s="43"/>
+      <c r="AE29" s="43"/>
+      <c r="AF29" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -3430,33 +4062,42 @@
     <mergeCell ref="AD4:AF4"/>
     <mergeCell ref="AG4:AI4"/>
     <mergeCell ref="AJ4:AL4"/>
-    <mergeCell ref="A22:Q22"/>
+    <mergeCell ref="A26:Q26"/>
     <mergeCell ref="A3:I4"/>
     <mergeCell ref="J3:M4"/>
     <mergeCell ref="N3:Q4"/>
-    <mergeCell ref="A23:AF25"/>
+    <mergeCell ref="A27:AF29"/>
   </mergeCells>
-  <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6 C7 C8 C9 C10 C11 C12 C13 C14 C15 C16 C17 C18 C19 C20 C21">
+  <dataValidations count="9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6 I7 I8 I9 I10 I11 I12 I13 I14 I15 I16 I17 I18 I19 I20 I21 I22 I23 I24 I25">
+      <formula1>"广东,北京,天津,河北,山西,内蒙古,辽宁,吉林,黑龙江,上海,江苏,浙江,安徽,福建,江西,山东,河南,湖北,湖南,广西,海南,重庆,四川,贵州,云南,西藏,陕西,甘肃,青海,宁夏,新疆,台湾,香港,澳门,外籍或其他"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6 F7 F8 F9 F10 F11 F12 F13 F14 F15 F16 F17 F18 F19 F20 F21 F22 F23 F24 F25">
+      <formula1>"初中以下学历,初中及同等学历,高中及同等学历,大专,本科,硕士,博士"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6 C7 C8 C9 C11 C12 C13 C14 C15 C16 C17 C18 C20 C21 C22 C23 C24 C25">
       <formula1>"男,女"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 S6 V6 Y6 AB6 AE6 AH6 AK6 D7 D8 D9 D10 D11 D12 D13 D14 D15 D16 D17 D18 D19 D20 D21 S7:S16 S17:S21 V7:V16 V17:V21 Y7:Y16 Y17:Y21 AB7:AB16 AB17:AB21 AE7:AE16 AE17:AE21 AH7:AH16 AH17:AH21 AK7:AK16 AK17:AK21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K6 K7 K8 K9 K10 K11 K12 K13 K14 K15 K16 K17 K18 R18 K19 K20 K21 K22 K23 K24 K25">
+      <formula1>"个险营销,银保,团险,电销,其他"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 S6 V6 Y6 D7 S7 V7 Y7 D8 S8 V8 Y8 D9 S9 V9 Y9 D10 S10 V10 Y10 D11 S11 V11 Y11 D12 S12 V12 Y12 D13 S13 V13 Y13 D14 S14 V14 Y14 D15 S15 V15 Y15 D16 S16 V16 Y16 D17 S17 V17 Y17 D18 S18 V18 Y18 D19 S19 V19 Y19 D20 S20 V20 Y20 D21 S21 V21 Y21 D22 S22 V22 Y22 D23 S23 V23 Y23 D24 S24 V24 Y24 D25 S25 V25 Y25">
       <formula1>"身份证,其他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K6 K7 K8 K9 K10 K11 K12 K13 K14 K15 K16 K17 K18 K19 K20 K21">
-      <formula1>"个险营销,银保,团险,电销,其他"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L6 L8 L9 L10 L11 L12 L13 L14 L15 L16 L17 L18 L19 L20 L21 L22 L23 L24 L25">
+      <formula1>"代理合同,劳动合同,劳务派遣,非全日制用工"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6 F7 F8 F9 F10 F11 F12 F13 F14 F15 F16 F17 F18 F19 F20 F21">
-      <formula1>"初中以下学历,初中及同等学历,高中及同等学历,大专,本科,硕士,博士"</formula1>
+    <dataValidation type="date" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6 G7 G8 G9 G10 G11 G12 G13 G14 G15 G16 G17 G18 G19 G20 G21 G22 G23 G24 G25">
+      <formula1>18264</formula1>
+      <formula2>54789</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6 I7 I8 I9 I10 I11 I12 I13 I14 I15 I16 I17 I18 I19 I20 I21">
-      <formula1>"广东,北京,天津,河北,山西,内蒙古,辽宁,吉林,黑龙江,上海,江苏,浙江,安徽,福建,江西,山东,河南,湖北,湖南,广西,海南,重庆,四川,贵州,云南,西藏,陕西,甘肃,青海,宁夏,新疆,台湾,香港,澳门,外籍或其他"</formula1>
+    <dataValidation type="whole" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6 H7 H8 H9 H10 H11 H12 H13 H14 H15 H16 H17 H18 H19 H20 H21 H22 H23 H24 H25 A6:A25">
+      <formula1>1</formula1>
+      <formula2>150</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P6 P7 P8 P9 P10 P11 P12 P13 P14 P15 P16 P17 P18 P19 P20 P21">
-      <formula1>"山东省,山东省济南市,山东省淄博市,山东省枣庄市,山东省东营市,山东省烟台市,山东省潍坊市,山东省济宁市,山东省泰安市,山东省威海市,山东省日照市,山东省滨州市,山东省德州市,山东省聊城市,山东省临沂市,山东省菏泽市"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L6 L7 L8 L9 L10 L11 L12 L13 L14 L15 L16 L17 L18 L19 L20 L21">
-      <formula1>"代理合同,劳动合同,劳务派遣,非全日制用工"</formula1>
+    <dataValidation type="date" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q6 Q7 Q8 Q9 Q10 Q11 Q12 Q13 Q14 Q15 Q16 Q17 Q18 Q19 Q20 Q21 Q22 Q23 Q24 Q25">
+      <formula1>18264</formula1>
+      <formula2>73051</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
@@ -3486,7 +4127,7 @@
   <sheetData>
     <row r="1" ht="51" customHeight="1" spans="1:4">
       <c r="A1" s="4" t="s">
-        <v>83</v>
+        <v>144</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -3494,16 +4135,16 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
       <c r="A2" s="5" t="s">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>85</v>
+        <v>146</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>86</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
@@ -3517,7 +4158,7 @@
         <v>14</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>87</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
@@ -3529,7 +4170,7 @@
         <v>15</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>88</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
@@ -3541,7 +4182,7 @@
         <v>16</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>89</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="31.5" customHeight="1" spans="1:4">
@@ -3553,7 +4194,7 @@
         <v>17</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>90</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="31.5" customHeight="1" spans="1:4">
@@ -3565,7 +4206,7 @@
         <v>18</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>91</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="29.25" customHeight="1" spans="1:4">
@@ -3577,7 +4218,7 @@
         <v>19</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>88</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
@@ -3589,7 +4230,7 @@
         <v>20</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>88</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="64.5" customHeight="1" spans="1:4">
@@ -3601,7 +4242,7 @@
         <v>21</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>92</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="78" customHeight="1" spans="1:4">
@@ -3615,7 +4256,7 @@
         <v>22</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>93</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="30" customHeight="1" spans="1:4">
@@ -3627,7 +4268,7 @@
         <v>23</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>94</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="33.75" customHeight="1" spans="1:4">
@@ -3639,12 +4280,12 @@
         <v>24</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>95</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" ht="18" customHeight="1" spans="1:4">
       <c r="A14" s="7" t="s">
-        <v>96</v>
+        <v>157</v>
       </c>
       <c r="B14" s="8">
         <v>12</v>
@@ -3653,7 +4294,7 @@
         <v>26</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>97</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="18" customHeight="1" spans="1:4">
@@ -3672,10 +4313,10 @@
         <v>14</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>98</v>
+        <v>159</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="34.5" customHeight="1" spans="1:4">
@@ -3687,7 +4328,7 @@
         <v>28</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>100</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="34.5" customHeight="1" spans="1:4">
@@ -3696,10 +4337,10 @@
         <v>16</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>101</v>
+        <v>162</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>102</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" ht="78" customHeight="1" spans="1:6">
@@ -3708,34 +4349,34 @@
         <v>17</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>103</v>
+        <v>164</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>104</v>
+        <v>165</v>
       </c>
       <c r="E19" s="21"/>
       <c r="F19" s="21"/>
     </row>
     <row r="20" s="1" customFormat="1" ht="133.5" customHeight="1" spans="1:4">
       <c r="A20" s="9" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>106</v>
+        <v>166</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="22" t="s">
-        <v>107</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" ht="90.75" customHeight="1" spans="1:5">
       <c r="A21" s="9"/>
       <c r="B21" s="23" t="s">
-        <v>108</v>
+        <v>168</v>
       </c>
       <c r="C21" s="23"/>
       <c r="D21" s="10" t="s">
-        <v>109</v>
+        <v>169</v>
       </c>
       <c r="E21" s="21"/>
     </row>
